--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>娘子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月17张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,9 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女贼</t>
-  </si>
-  <si>
     <t>美屡+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,15 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：5429</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:174</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必掉 周日</t>
+    <t>必掉 周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘子+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：1889</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +491,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +511,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -531,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -539,10 +540,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -556,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -564,7 +565,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -579,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -587,7 +588,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -599,13 +600,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -620,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -638,16 +639,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -662,11 +663,20 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>41563</v>
+        <v>41568</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>393</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -678,13 +688,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>41564</v>
+        <v>41569</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -696,14 +706,14 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>41565</v>
+        <v>41570</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -715,10 +725,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>41566</v>
+        <v>41571</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" s="4"/>
@@ -732,13 +742,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>41567</v>
+        <v>41572</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -132,7 +132,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：1889</t>
+    <t>符石：2149</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,6 +693,15 @@
       <c r="D10" s="1">
         <v>41569</v>
       </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>433</v>
+      </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,9 +81,6 @@
     <t>大妈Max</t>
   </si>
   <si>
-    <t>桶牛+2</t>
-  </si>
-  <si>
     <t>教主Max * 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,23 +113,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必掉 周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娘子+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：2149</t>
+    <t>10-23 大使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-24 大使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘子+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-25 将军 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶牛Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必掉 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20 镇长 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：1929</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +508,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,7 +528,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -532,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -580,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -600,10 +617,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -621,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -639,13 +656,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -663,20 +680,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>41568</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>393</v>
+        <v>41573</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -691,19 +699,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>41569</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>433</v>
+        <v>41574</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -718,11 +717,11 @@
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -734,13 +733,15 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>41571</v>
+        <v>41576</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -754,10 +755,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
-        <v>41572</v>
+        <v>41577</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -768,6 +772,9 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -777,6 +784,9 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女贼+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10-24 大使</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,7 +145,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：1929</t>
+    <t>女贼+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-26 镇长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-27 沃丕尔大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：1989</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +516,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,7 +536,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
@@ -549,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -574,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -662,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -682,6 +690,15 @@
       <c r="D9" s="1">
         <v>41573</v>
       </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3">
+        <v>559</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
         <v>22</v>
@@ -701,6 +718,15 @@
       <c r="D10" s="1">
         <v>41574</v>
       </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3">
+        <v>593</v>
+      </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
@@ -733,14 +759,14 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>41576</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -755,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>41577</v>
@@ -773,7 +799,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -785,7 +811,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -796,6 +822,9 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -804,7 +833,10 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:17" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -813,7 +845,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:17" x14ac:dyDescent="0.15">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -822,7 +854,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:17" x14ac:dyDescent="0.15">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>娘子+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10-25 将军 *</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,7 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：1989</t>
+    <t>娘子+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：155</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -745,6 +745,15 @@
       <c r="D11" s="1">
         <v>41575</v>
       </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>633</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
         <v>24</v>
@@ -759,14 +768,23 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>41576</v>
       </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3">
+        <v>668</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -781,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>41577</v>
@@ -811,7 +829,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -823,7 +841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -835,7 +853,7 @@
     </row>
     <row r="17" spans="10:17" x14ac:dyDescent="0.15">
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,33 +44,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月17张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-09 贾格马</t>
-  </si>
-  <si>
-    <t>10 1~6日 5张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小德Max</t>
   </si>
   <si>
-    <t>10-10 将军 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11 贾格马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11 锁惢深大帝</t>
+    <t>大妈Max</t>
+  </si>
+  <si>
+    <t>美屡+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶牛Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必掉 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教主Max</t>
+  </si>
+  <si>
+    <t>教主Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月17张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月20张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-31 LV：108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,86 +101,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大妈Max</t>
-  </si>
-  <si>
-    <t>教主Max * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美屡+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-15 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-15 死骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-15 镇长 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-23 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-24 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-25 将军 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必掉 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-20 镇长 *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-26 镇长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-27 沃丕尔大师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娘子+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：155</t>
+    <t>11-01 大奶同需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘子Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士士+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：245</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +472,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,9 +492,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -557,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -565,10 +523,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -582,17 +540,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -605,16 +562,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -628,10 +582,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -643,13 +594,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -661,19 +609,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -685,24 +630,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>41573</v>
+        <v>41578</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
-        <v>559</v>
+        <v>735</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -713,22 +655,19 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41574</v>
+        <v>41579</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
-        <v>593</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
+        <v>776</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -740,10 +679,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41575</v>
+        <v>41580</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -752,12 +691,9 @@
         <v>40</v>
       </c>
       <c r="G11" s="3">
-        <v>633</v>
+        <v>816</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -768,24 +704,21 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41576</v>
+        <v>41581</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3">
-        <v>668</v>
+        <v>839</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -796,17 +729,15 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>41577</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>41582</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -816,8 +747,8 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J14" t="s">
-        <v>26</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -828,9 +759,6 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -840,9 +768,6 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -851,10 +776,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.15">
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -863,7 +785,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -872,7 +794,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首饰:697</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必掉 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女贼Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傻馒+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-01 大奶同需</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,7 +101,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：245</t>
+    <t>傻馒Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-04 院长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-04 恐惧领主*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮姐+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必掉 周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：405</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +484,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,10 +504,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -515,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -523,10 +535,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -540,15 +552,18 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -569,6 +584,9 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -579,7 +597,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -594,7 +612,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -612,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -632,17 +650,20 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="1">
-        <v>41578</v>
+        <v>41583</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>735</v>
+        <v>902</v>
       </c>
       <c r="H9" s="3"/>
       <c r="K9" s="2"/>
@@ -658,16 +679,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41579</v>
-      </c>
-      <c r="E10">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3">
-        <v>776</v>
+        <v>41584</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -682,16 +694,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41580</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>816</v>
+        <v>41585</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>
@@ -707,16 +710,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41581</v>
-      </c>
-      <c r="E12">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3">
-        <v>839</v>
+        <v>41586</v>
       </c>
       <c r="H12" s="3"/>
       <c r="K12" s="2"/>
@@ -732,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>41582</v>
+        <v>41587</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2"/>
@@ -748,7 +742,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,7 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：405</t>
+    <t>符石：145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-07 肉球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,6 +606,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -681,6 +688,15 @@
       <c r="D10" s="1">
         <v>41584</v>
       </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>942</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -695,6 +711,15 @@
       </c>
       <c r="D11" s="1">
         <v>41585</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3">
+        <v>981</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="1" r:id="rId1"/>
+    <sheet name="竞技场" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +51,101 @@
     <t>大妈Max</t>
   </si>
   <si>
+    <t>桶牛Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教主Max</t>
+  </si>
+  <si>
+    <t>教主Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月17张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月20张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-31 LV：108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-01 大奶同需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘子Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士士+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻馒Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-04 院长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-04 恐惧领主*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-07 肉球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女德+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-09 恐惧领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-09 内裤龙*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:1049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必掉 周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮姐+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼</t>
+  </si>
+  <si>
     <t>美屡+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呆贼</t>
+    <t>大妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,74 +153,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桶牛Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主Max</t>
-  </si>
-  <si>
-    <t>教主Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月17张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十月20张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-31 LV：108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-01 大奶同需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娘子Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士士+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻馒Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-04 院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-04 恐惧领主*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮姐+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:862</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必掉 周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-07 肉球</t>
+    <t xml:space="preserve">战力3w7~3w8 紫弱
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：11794</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,21 +202,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,7 +640,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,16 +660,19 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -531,18 +686,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -556,18 +711,18 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -581,15 +736,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -601,13 +756,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -619,10 +774,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -637,13 +795,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -657,20 +818,8 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="1">
-        <v>41583</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3">
-        <v>902</v>
+        <v>41588</v>
       </c>
       <c r="H9" s="3"/>
       <c r="K9" s="2"/>
@@ -686,16 +835,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41584</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>942</v>
+        <v>41589</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -710,16 +850,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41585</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3">
-        <v>981</v>
+        <v>41590</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>
@@ -735,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41586</v>
+        <v>41591</v>
       </c>
       <c r="H12" s="3"/>
       <c r="K12" s="2"/>
@@ -748,13 +879,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>41587</v>
+        <v>41592</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2"/>
@@ -767,7 +898,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -778,6 +909,9 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -831,4 +965,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,11 +158,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：11794</t>
+    <t>符石：245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-10 时空领主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +825,19 @@
       <c r="D9" s="1">
         <v>41588</v>
       </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1086</v>
+      </c>
       <c r="H9" s="3"/>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11-10 时空领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-11 大奶同需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12 大使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12 死骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max傻馒，30蓝武器，紫戒指，紫肩；Max大妈，紫披风，紫肩；+1炮姐，紫武器，紫披风，紫戒指；75+女德
+战力：38005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>大妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,20 +178,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">战力3w7~3w8 紫弱
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-10 时空领主</t>
+    <t>副本：战力控制在56300左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：12544</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,18 +310,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -339,6 +360,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +677,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,18 +697,18 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -692,11 +725,11 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -717,11 +750,11 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="J4" t="s">
         <v>20</v>
       </c>
@@ -742,11 +775,11 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="J5" t="s">
         <v>21</v>
       </c>
@@ -836,7 +869,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -853,6 +886,18 @@
       <c r="D10" s="1">
         <v>41589</v>
       </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -868,7 +913,19 @@
       <c r="D11" s="1">
         <v>41590</v>
       </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1165</v>
+      </c>
       <c r="H11" s="3"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -884,7 +941,19 @@
       <c r="D12" s="1">
         <v>41591</v>
       </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1205</v>
+      </c>
       <c r="H12" s="3"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -985,54 +1054,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E8"/>
+  <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="17" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:E5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,23 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首饰:1049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必掉 周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炮姐+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>呆贼</t>
-  </si>
-  <si>
-    <t>美屡+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11-10 时空领主</t>
@@ -182,11 +170,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：12544</t>
+    <t>11-14 大奶同需*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-14 肉球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美屡+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:1247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：12696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：885</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +681,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,7 +701,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>15</v>
@@ -773,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -832,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -855,21 +859,24 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="1">
-        <v>41588</v>
+        <v>41593</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3">
-        <v>1086</v>
+        <v>1291</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -884,19 +891,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41589</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1125</v>
+        <v>41594</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -911,20 +909,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41590</v>
-      </c>
-      <c r="E11">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1165</v>
+        <v>41595</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -939,20 +928,11 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41591</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1205</v>
+        <v>41596</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -966,13 +946,12 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="1">
-        <v>41592</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>41597</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -985,6 +964,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -994,9 +976,6 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1064,7 +1043,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
@@ -1095,7 +1074,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -1103,25 +1082,25 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="1" r:id="rId1"/>
-    <sheet name="竞技场" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,35 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max傻馒，30蓝武器，紫戒指，紫肩；Max大妈，紫披风，紫肩；+1炮姐，紫武器，紫披风，紫戒指；75+女德
-战力：38005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本：战力控制在56300左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-14 大奶同需*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,11 +156,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声望：12696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：885</t>
+    <t>符石：125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -230,153 +196,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -681,7 +515,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,19 +535,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -729,11 +560,11 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -754,11 +585,11 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="J4" t="s">
         <v>20</v>
       </c>
@@ -777,13 +608,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="J5" t="s">
         <v>21</v>
       </c>
@@ -842,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -893,6 +724,15 @@
       <c r="D10" s="1">
         <v>41594</v>
       </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1335</v>
+      </c>
       <c r="J10" t="s">
         <v>29</v>
       </c>
@@ -911,6 +751,15 @@
       <c r="D11" s="1">
         <v>41595</v>
       </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1379</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
         <v>30</v>
@@ -930,6 +779,15 @@
       <c r="D12" s="1">
         <v>41596</v>
       </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1423</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
         <v>31</v>
@@ -950,7 +808,7 @@
         <v>41597</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -965,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1029,90 +887,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,15 +148,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美屡+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:1247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>符石：125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美屡Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-19 贾格马*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:1456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,7 +539,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>15</v>
@@ -608,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -673,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -694,16 +698,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>41593</v>
-      </c>
-      <c r="E9">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1291</v>
+        <v>41598</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
@@ -722,16 +717,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41594</v>
-      </c>
-      <c r="E10">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1335</v>
+        <v>41599</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -749,16 +735,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41595</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1379</v>
+        <v>41600</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
@@ -777,16 +754,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41596</v>
-      </c>
-      <c r="E12">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1423</v>
+        <v>41601</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
@@ -805,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>41597</v>
+        <v>41602</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>32</v>
@@ -834,6 +802,9 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10-31 LV：108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-01 大奶同需</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美屡Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +153,14 @@
   </si>
   <si>
     <t>首饰:1456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-20 LV：109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,10 +539,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -570,7 +570,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -595,7 +595,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>14</v>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -620,7 +620,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -635,10 +635,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -653,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -695,14 +695,23 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>41598</v>
       </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1498</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -720,7 +729,7 @@
         <v>41599</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -739,7 +748,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -758,7 +767,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -776,7 +785,7 @@
         <v>41602</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -791,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -803,7 +812,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,9 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呆贼</t>
-  </si>
-  <si>
     <t>11-10 时空领主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,11 +153,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：285</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-20 LV：109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-21 镇长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +524,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,7 +547,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -612,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -671,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -711,7 +716,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -728,8 +733,17 @@
       <c r="D10" s="1">
         <v>41599</v>
       </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1529</v>
+      </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -748,7 +762,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -767,7 +781,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -785,7 +799,7 @@
         <v>41602</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -800,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -812,7 +826,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -823,6 +837,9 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炮姐+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-10 时空领主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,23 +145,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首饰:1456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-20 LV：109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-21 镇长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呆贼+</t>
+    <t>11-22 酋长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-22 时空领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-24 镇长*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发丝：6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥术：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：13371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +548,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,16 +568,19 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -617,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -676,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -699,24 +726,12 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="1">
-        <v>41598</v>
-      </c>
-      <c r="E9">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>42</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1498</v>
+        <v>41603</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -731,19 +746,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>41599</v>
-      </c>
-      <c r="E10">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1529</v>
+        <v>41604</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -758,11 +764,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41600</v>
+        <v>41605</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -777,11 +783,11 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41601</v>
+        <v>41606</v>
       </c>
       <c r="H12" s="3"/>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -795,11 +801,9 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>41602</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -814,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -826,7 +830,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -837,8 +841,11 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -848,7 +855,16 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -857,7 +873,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -866,7 +885,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,27 +169,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发丝：6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰锥术：1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背刺：1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：13371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首饰:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-26 时空领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-26 超奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：13575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：6241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发丝：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-27 肉球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺：4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -568,7 +584,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>33</v>
@@ -580,6 +596,9 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -709,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -729,6 +748,15 @@
       <c r="D9" s="1">
         <v>41603</v>
       </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>92</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="J9" t="s">
         <v>25</v>
@@ -748,6 +776,15 @@
       <c r="D10" s="1">
         <v>41604</v>
       </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>130</v>
+      </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
@@ -766,6 +803,15 @@
       <c r="D11" s="1">
         <v>41605</v>
       </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3">
+        <v>169</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="J11" t="s">
         <v>27</v>
@@ -842,7 +888,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -857,10 +903,10 @@
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
@@ -896,6 +942,21 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-01 大奶同需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>娘子Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,123 +85,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-04 院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-04 恐惧领主*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-07 肉球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女德+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-09 恐惧领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-09 内裤龙*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-10 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-11 大奶同需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12 死骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-14 大奶同需*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-14 肉球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美屡Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-19 贾格马*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-20 LV：109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-21 镇长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-22 酋长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-22 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆贼+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-24 镇长*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰锥术：1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首饰:52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-26 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-26 超奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：13575</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币：6241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发丝：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-27 肉球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背刺：4</t>
+    <t>发丝+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月22张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：2545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：6525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：14116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,10 +516,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -595,10 +527,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -613,16 +545,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
@@ -638,16 +567,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
@@ -663,17 +589,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -686,10 +611,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -704,10 +626,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -722,15 +641,12 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="2"/>
@@ -745,8 +661,11 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="1">
-        <v>41603</v>
+        <v>41607</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -755,12 +674,9 @@
         <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -773,20 +689,20 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="1">
-        <v>41604</v>
+        <v>41608</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -801,21 +717,18 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41605</v>
+        <v>41609</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -829,12 +742,9 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41606</v>
+        <v>41610</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -847,10 +757,10 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="1">
+        <v>41611</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -863,9 +773,6 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -875,9 +782,6 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -887,11 +791,8 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>34</v>
+      <c r="E16" t="s">
+        <v>25</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -903,13 +804,10 @@
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -920,9 +818,6 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="J18" t="s">
-        <v>36</v>
-      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -932,9 +827,6 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -942,21 +834,6 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>士士+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傻馒Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,51 +89,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-20 LV：109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥术：1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发丝+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼：10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背刺：5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十一月22张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：2545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆贼+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币：6525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：14116</t>
+    <t>12-02 霜语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-03 沃丕尔*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-04 将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-05 镇长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-06 镇长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-06 锁惢深大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士士+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-07 LV：110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女贼+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-08 沃丕尔*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-11 时空领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13 时空领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13 将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13 大使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13 沃丕尔*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13 锁惢深大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-14 萨拉拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-16 大使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-18 沃丕尔*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-18 酋长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发丝Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：7849</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：17156</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +552,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,10 +572,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -527,10 +583,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -545,13 +604,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
@@ -574,6 +636,9 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,15 +654,18 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -611,7 +679,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -626,7 +697,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -647,7 +721,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -662,21 +739,15 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>41607</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3">
-        <v>245</v>
+        <v>41627</v>
       </c>
       <c r="H9" s="3"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -690,19 +761,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>41608</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3">
-        <v>280</v>
+        <v>41628</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -717,18 +782,12 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41609</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>320</v>
+        <v>41629</v>
       </c>
       <c r="H11" s="3"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -742,9 +801,12 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41610</v>
+        <v>41630</v>
       </c>
       <c r="H12" s="3"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -758,9 +820,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>41611</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>41631</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -773,6 +837,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -782,6 +849,9 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -791,8 +861,8 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>25</v>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -802,12 +872,9 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
+    <row r="17" spans="10:17" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>41</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -817,7 +884,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:17" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -826,7 +896,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:17" x14ac:dyDescent="0.15">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女德+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美屡Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,34 +89,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-02 霜语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-03 沃丕尔*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-04 将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呆贼Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-05 镇长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-06 镇长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-06 锁惢深大帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>士士+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,71 +101,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女贼+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-08 沃丕尔*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-11 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13 时空领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13 将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13 沃丕尔*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13 锁惢深大帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-14 萨拉拉克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-16 大使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰:929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-18 沃丕尔*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-18 酋长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发丝Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币：7849</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望：17156</t>
+    <t>女贼Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女德+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望：17904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：1130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：9934</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +484,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,10 +504,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -583,13 +515,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -611,9 +540,6 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
@@ -636,9 +562,6 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,18 +577,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -679,10 +599,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -697,10 +614,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -715,16 +629,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -739,15 +650,21 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>41627</v>
+        <v>41637</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>238</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -761,14 +678,12 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>41628</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>41638</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -782,12 +697,9 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>41629</v>
+        <v>41639</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -801,12 +713,9 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41630</v>
+        <v>41640</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -820,11 +729,9 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>41631</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>41641</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -837,9 +744,6 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -849,9 +753,6 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -861,9 +762,6 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -872,10 +770,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.15">
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -884,10 +779,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.15">
-      <c r="J18" t="s">
-        <v>42</v>
-      </c>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -896,7 +788,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.15">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>精英副本计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,15 +117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声望：17904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：1130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币：9934</t>
+    <t>符石：1620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：9888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +480,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,7 +500,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -514,11 +510,8 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -682,6 +675,15 @@
       </c>
       <c r="D10" s="1">
         <v>41638</v>
+      </c>
+      <c r="E10">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3">
+        <v>277</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -117,11 +117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符石：1620</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币：9888</t>
+    <t>符石：420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：10207</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,6 +701,15 @@
       <c r="D11" s="1">
         <v>41639</v>
       </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3">
+        <v>321</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>

--- a/trunk/学习笔记/我叫MT/卡牌统计.xlsx
+++ b/trunk/学习笔记/我叫MT/卡牌统计.xlsx
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九月17张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十月20张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>娘子Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十一月22张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呆贼Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-07 LV：110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发丝Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,19 +93,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12-31 LV：111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 酋长*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2 酋长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>女德+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首饰:208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符石：420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币：10207</t>
+    <t>炮姐Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石：480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币：11423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,10 +500,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -511,7 +511,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -526,16 +529,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -548,16 +552,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -570,16 +572,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -592,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -622,13 +622,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -646,16 +646,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>41637</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>238</v>
+        <v>41641</v>
       </c>
       <c r="H9" s="3"/>
       <c r="K9" s="2"/>
@@ -671,19 +662,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>41638</v>
-      </c>
-      <c r="E10">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3">
-        <v>277</v>
+        <v>41642</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
@@ -698,17 +680,11 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="1">
-        <v>41639</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3">
-        <v>321</v>
+        <v>41643</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>
@@ -724,7 +700,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>41640</v>
+        <v>41644</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
       </c>
       <c r="H12" s="3"/>
       <c r="K12" s="2"/>
@@ -740,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>41641</v>
+        <v>41645</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2"/>
